--- a/data/Statistics-Gnathiid_Hf_Night_27C_Group.xlsx
+++ b/data/Statistics-Gnathiid_Hf_Night_27C_Group.xlsx
@@ -635,148 +635,148 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>454.163</v>
+        <v>435.92</v>
       </c>
       <c r="C2">
-        <v>98.1263</v>
+        <v>94.8614</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>5.20821</v>
+        <v>5.05463</v>
       </c>
       <c r="F2">
-        <v>1.12588</v>
+        <v>1.07909</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>2.26316</v>
+        <v>2.2</v>
       </c>
       <c r="I2">
-        <v>0.488715</v>
+        <v>0.467918</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>32.3158</v>
+        <v>32.66</v>
       </c>
       <c r="L2">
-        <v>13.5289</v>
+        <v>12.8393</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>11.4037</v>
+        <v>11.4891</v>
       </c>
       <c r="O2">
-        <v>4.54512</v>
+        <v>4.31273</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>3.47368</v>
+        <v>3.3</v>
       </c>
       <c r="R2">
-        <v>0.636917</v>
+        <v>0.6287</v>
       </c>
       <c r="S2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T2">
-        <v>40.3579</v>
+        <v>38.34</v>
       </c>
       <c r="U2">
-        <v>13.3971</v>
+        <v>12.8688</v>
       </c>
       <c r="V2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W2">
-        <v>13.9526</v>
+        <v>13.255</v>
       </c>
       <c r="X2">
-        <v>4.49216</v>
+        <v>4.31836</v>
       </c>
       <c r="Y2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z2">
-        <v>2.73684</v>
+        <v>2.6</v>
       </c>
       <c r="AA2">
-        <v>0.7408</v>
+        <v>0.715983</v>
       </c>
       <c r="AB2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2">
-        <v>26.9263</v>
+        <v>25.58</v>
       </c>
       <c r="AD2">
-        <v>14.6293</v>
+        <v>13.9437</v>
       </c>
       <c r="AE2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF2">
-        <v>9.04845</v>
+        <v>8.59602</v>
       </c>
       <c r="AG2">
-        <v>4.89086</v>
+        <v>4.66188</v>
       </c>
       <c r="AH2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI2">
-        <v>2.26316</v>
+        <v>2.2</v>
       </c>
       <c r="AJ2">
-        <v>0.674698</v>
+        <v>0.643183</v>
       </c>
       <c r="AK2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL2">
-        <v>24.1053</v>
+        <v>23.07</v>
       </c>
       <c r="AM2">
-        <v>11.9288</v>
+        <v>11.3639</v>
       </c>
       <c r="AN2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO2">
-        <v>9.28471</v>
+        <v>8.87733</v>
       </c>
       <c r="AP2">
-        <v>4.47874</v>
+        <v>4.26839</v>
       </c>
       <c r="AQ2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR2">
-        <v>72.619</v>
+        <v>70.4964</v>
       </c>
       <c r="AS2">
-        <v>3.8508</v>
+        <v>3.75522</v>
       </c>
       <c r="AT2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU2">
-        <v>47022.5</v>
+        <v>42944.9</v>
       </c>
       <c r="AV2">
-        <v>9858.86</v>
+        <v>9288.57</v>
       </c>
     </row>
   </sheetData>
